--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3325504.581115929</v>
+        <v>3323252.50140472</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>93.52676208877482</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>202.010597649572</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.9378713597429</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>71.67037196991681</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>186.6141597285332</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060003</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,13 +1057,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1108,13 +1108,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>92.33406830385357</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>246.7053196171297</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>104.2590660175762</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187894</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505461</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>109.0404882242268</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289883</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>180.0179497934419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506642</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.4649598217091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206847</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046979</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523373</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412183</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532361</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730928</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3121.554712872229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2790.491825528658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.723170258544</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.723170258544</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1854.900232967364</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2175.400891308157</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>1806.438374367745</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>547.3108956025783</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2952.140063348091</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2562.000731372279</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
         <v>234.2149530574645</v>
@@ -4756,19 +4756,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1330.744855581915</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1076.060367376028</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1076.060367376028</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>848.0708164780106</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.0708164780106</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670284</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729872</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.480465123122</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>768.6922125248775</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>357.7063077352699</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734406</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4875,16 +4875,16 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1821.982360191951</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1600.215744761477</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1600.215744761477</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,40 +5051,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5294,34 +5294,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5431,55 +5431,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,28 +5501,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5534,19 +5534,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>746.8882603249848</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.294644713842</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>916.294644713842</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>766.1780053015062</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>618.2649117191131</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>471.3749642212027</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360827</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5947,13 +5947,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6154,7 +6154,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,28 +6212,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,13 +6400,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487568</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433596</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433596</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454492</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603292</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,34 +6947,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683292</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404223</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404223</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580292</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601188</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.18352155162</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.294644713842</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859351</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735993</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912062</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912062</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060862</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482843</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-2.046363078989089e-12</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711693</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>58.206332874401</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922406</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>72.11969353038606</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929555969</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408521</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187124</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109901</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876517</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903276</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.3683537222866</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125623</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>698273.4890367516</v>
+        <v>698273.4890367514</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="F2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>92183.89891818177</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683031</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683034</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683042</v>
       </c>
       <c r="H4" t="n">
+        <v>12996.86414683042</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12996.86414683036</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12996.86414683036</v>
+      </c>
+      <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="J4" t="n">
-        <v>12996.8641468304</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12996.86414683043</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12996.86414683045</v>
-      </c>
       <c r="M4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789924.9923293117</v>
+        <v>-789924.9923293121</v>
       </c>
       <c r="C6" t="n">
-        <v>538819.7533982805</v>
+        <v>538819.7533982806</v>
       </c>
       <c r="D6" t="n">
         <v>538819.7533982801</v>
       </c>
       <c r="E6" t="n">
-        <v>286900.0839429126</v>
+        <v>286865.3460174763</v>
       </c>
       <c r="F6" t="n">
-        <v>612312.5457502679</v>
+        <v>612277.807824832</v>
       </c>
       <c r="G6" t="n">
-        <v>612312.5457502679</v>
+        <v>612277.807824832</v>
       </c>
       <c r="H6" t="n">
-        <v>612312.5457502678</v>
+        <v>612277.807824832</v>
       </c>
       <c r="I6" t="n">
-        <v>612312.545750268</v>
+        <v>612277.807824832</v>
       </c>
       <c r="J6" t="n">
-        <v>394781.3433529902</v>
+        <v>394746.6054275545</v>
       </c>
       <c r="K6" t="n">
-        <v>612312.5457502679</v>
+        <v>612277.8078248324</v>
       </c>
       <c r="L6" t="n">
-        <v>612312.5457502678</v>
+        <v>612277.8078248322</v>
       </c>
       <c r="M6" t="n">
-        <v>527257.5178147558</v>
+        <v>527222.7798893199</v>
       </c>
       <c r="N6" t="n">
-        <v>612312.5457502678</v>
+        <v>612277.8078248319</v>
       </c>
       <c r="O6" t="n">
-        <v>612312.5457502678</v>
+        <v>612277.8078248322</v>
       </c>
       <c r="P6" t="n">
-        <v>612312.545750268</v>
+        <v>612277.8078248325</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>289.2070795747057</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>48.98457430933001</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>85.41454905009519</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>214.5414662356961</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>168.0688818921498</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27777,13 +27777,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>193.8777699017593</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>164.2164060363237</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090762</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>85.50995931386565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-2.785327524179593e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29272,13 +29272,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1.736439038534721e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>160.6314956130949</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.255575077084</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860359</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32552,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897653</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32740,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32792,28 +32792,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642889</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32880,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33020,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575224</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175656</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153323</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>485.11270320829</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500031</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182639</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>20.64972152707336</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717057</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098912</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782673</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418906</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.360777931999</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>342.5164587638456</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279849</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383897</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
